--- a/equipment.xlsx
+++ b/equipment.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$G$806</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$G$855</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -5481,7 +5481,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G855"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A821" workbookViewId="0">
+      <selection activeCell="L851" sqref="L851"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -25155,7 +25157,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G806"/>
+  <autoFilter ref="A1:G855"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/equipment.xlsx
+++ b/equipment.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4862" uniqueCount="1694">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5114" uniqueCount="1778">
   <si>
     <t>GAI0029-3</t>
   </si>
@@ -5099,6 +5099,258 @@
   </si>
   <si>
     <t>32G UBR320 UNBALANCED COUPLER</t>
+  </si>
+  <si>
+    <t>D60317</t>
+  </si>
+  <si>
+    <t>D60318</t>
+  </si>
+  <si>
+    <t>D60323</t>
+  </si>
+  <si>
+    <t>D60324</t>
+  </si>
+  <si>
+    <t>D60325</t>
+  </si>
+  <si>
+    <t>D60326</t>
+  </si>
+  <si>
+    <t>D60327</t>
+  </si>
+  <si>
+    <t>D60328</t>
+  </si>
+  <si>
+    <t>D60329</t>
+  </si>
+  <si>
+    <t>D60330</t>
+  </si>
+  <si>
+    <t>D60331</t>
+  </si>
+  <si>
+    <t>D60332</t>
+  </si>
+  <si>
+    <t>D60349</t>
+  </si>
+  <si>
+    <t>D60350</t>
+  </si>
+  <si>
+    <t>D60351</t>
+  </si>
+  <si>
+    <t>D60352</t>
+  </si>
+  <si>
+    <t>D60353</t>
+  </si>
+  <si>
+    <t>D60354</t>
+  </si>
+  <si>
+    <t>D60333</t>
+  </si>
+  <si>
+    <t>D60334</t>
+  </si>
+  <si>
+    <t>D60335</t>
+  </si>
+  <si>
+    <t>D60336</t>
+  </si>
+  <si>
+    <t>D60337</t>
+  </si>
+  <si>
+    <t>D60338</t>
+  </si>
+  <si>
+    <t>D60355</t>
+  </si>
+  <si>
+    <t>D60356</t>
+  </si>
+  <si>
+    <t>D60357</t>
+  </si>
+  <si>
+    <t>D60358</t>
+  </si>
+  <si>
+    <t>D60321</t>
+  </si>
+  <si>
+    <t>D60322</t>
+  </si>
+  <si>
+    <t>D60339</t>
+  </si>
+  <si>
+    <t>D60340</t>
+  </si>
+  <si>
+    <t>D60341</t>
+  </si>
+  <si>
+    <t>D60342</t>
+  </si>
+  <si>
+    <t>D60343</t>
+  </si>
+  <si>
+    <t>D60344</t>
+  </si>
+  <si>
+    <t>D60345</t>
+  </si>
+  <si>
+    <t>D60346</t>
+  </si>
+  <si>
+    <t>D60347</t>
+  </si>
+  <si>
+    <t>D60348</t>
+  </si>
+  <si>
+    <t>OBUL 8+0 6U 340 CH0102030405060708</t>
+  </si>
+  <si>
+    <t>OBUH 8+0 6U 340 CH0102030405060708</t>
+  </si>
+  <si>
+    <t>OBUL 4+0 6U 340 CH01020304</t>
+  </si>
+  <si>
+    <t>OBUH 4+0 6U 340 CH01020304</t>
+  </si>
+  <si>
+    <t>OBUL 4+0 6U 340 CH02030405</t>
+  </si>
+  <si>
+    <t>OBUH 4+0 6U 340 CH02030405</t>
+  </si>
+  <si>
+    <t>OBUL 4+0 6U 340 CH03040506</t>
+  </si>
+  <si>
+    <t>OBUH 4+0 6U 340 CH03040506</t>
+  </si>
+  <si>
+    <t>OBUL 4+0 6U 340 CH04050607</t>
+  </si>
+  <si>
+    <t>OBUH 4+0 6U 340 CH04050607</t>
+  </si>
+  <si>
+    <t>OBUL 4+0 6U 340 CH05060708</t>
+  </si>
+  <si>
+    <t>OBUH 4+0 6U 340 CH05060708</t>
+  </si>
+  <si>
+    <t>OBUL 4+0 7L 196 CH01020304</t>
+  </si>
+  <si>
+    <t>OBUH 4+0 7L 196 CH01020304</t>
+  </si>
+  <si>
+    <t>OBUL 4+0 7L 196 CH02030405</t>
+  </si>
+  <si>
+    <t>OBUH 4+0 7L 196 CH02030405</t>
+  </si>
+  <si>
+    <t>OBUL 4+0 7L 196 CH01020405</t>
+  </si>
+  <si>
+    <t>OBUH 4+0 7L 196 CH01020405</t>
+  </si>
+  <si>
+    <t>OBUL 4+0 7M 154 CH01020304</t>
+  </si>
+  <si>
+    <t>OBUH 4+0 7M 154 CH01020304</t>
+  </si>
+  <si>
+    <t>OBUL 4+0 7M 154 CH02030405</t>
+  </si>
+  <si>
+    <t>OBUH 4+0 7M 154 CH02030405</t>
+  </si>
+  <si>
+    <t>OBUL 4+0 7M 154 CH03040506</t>
+  </si>
+  <si>
+    <t>OBUH 4+0 7M 154 CH03040506</t>
+  </si>
+  <si>
+    <t>OBUL 4+0 7M 168 CH01020304</t>
+  </si>
+  <si>
+    <t>OBUH 4+0 7M 168 CH01020304</t>
+  </si>
+  <si>
+    <t>OBUL 4+0 7M 168 CH02030405</t>
+  </si>
+  <si>
+    <t>OBUH 4+0 7M 168 CH02030405</t>
+  </si>
+  <si>
+    <t>OBUL 8+0 8 311 CH0102030405060708</t>
+  </si>
+  <si>
+    <t>OBUH 8+0 8 311 CH0102030405060708</t>
+  </si>
+  <si>
+    <t>OBUL 4+0 8 311 CH01020304</t>
+  </si>
+  <si>
+    <t>OBUH 4+0 8 311 CH01020304</t>
+  </si>
+  <si>
+    <t>OBUL 4+0 8 311 CH02030405</t>
+  </si>
+  <si>
+    <t>OBUH 4+0 8 311 CH02030405</t>
+  </si>
+  <si>
+    <t>OBUL 4+0 8 311 CH03040506</t>
+  </si>
+  <si>
+    <t>OBUH 4+0 8 311 CH03040506</t>
+  </si>
+  <si>
+    <t>OBUL 4+0 8 311 CH04050607</t>
+  </si>
+  <si>
+    <t>OBUH 4+0 8 311 CH04050607</t>
+  </si>
+  <si>
+    <t>OBUL 4+0 8 311 CH05060708</t>
+  </si>
+  <si>
+    <t>OBUH 4+0 8 311 CH05060708</t>
+  </si>
+  <si>
+    <t>OBU</t>
+  </si>
+  <si>
+    <t>OBUL</t>
+  </si>
+  <si>
+    <t>OBUH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6U </t>
   </si>
 </sst>
 </file>
@@ -5479,10 +5731,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G855"/>
+  <dimension ref="A1:G895"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A821" workbookViewId="0">
-      <selection activeCell="L851" sqref="L851"/>
+    <sheetView tabSelected="1" topLeftCell="A883" workbookViewId="0">
+      <selection activeCell="C892" sqref="C892"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25156,6 +25408,926 @@
         <v>38</v>
       </c>
     </row>
+    <row r="856" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A856" s="2" t="s">
+        <v>1694</v>
+      </c>
+      <c r="B856" s="2" t="s">
+        <v>1734</v>
+      </c>
+      <c r="C856" s="2" t="s">
+        <v>1774</v>
+      </c>
+      <c r="D856" s="2" t="s">
+        <v>1775</v>
+      </c>
+      <c r="E856" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F856" s="3" t="s">
+        <v>1777</v>
+      </c>
+      <c r="G856" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="857" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A857" s="2" t="s">
+        <v>1695</v>
+      </c>
+      <c r="B857" s="2" t="s">
+        <v>1735</v>
+      </c>
+      <c r="C857" s="2" t="s">
+        <v>1774</v>
+      </c>
+      <c r="D857" s="2" t="s">
+        <v>1776</v>
+      </c>
+      <c r="E857" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F857" s="3" t="s">
+        <v>1777</v>
+      </c>
+      <c r="G857" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="858" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A858" s="2" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B858" s="2" t="s">
+        <v>1736</v>
+      </c>
+      <c r="C858" s="2" t="s">
+        <v>1774</v>
+      </c>
+      <c r="D858" s="2" t="s">
+        <v>1775</v>
+      </c>
+      <c r="E858" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F858" s="3" t="s">
+        <v>1777</v>
+      </c>
+      <c r="G858" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="859" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A859" s="2" t="s">
+        <v>1697</v>
+      </c>
+      <c r="B859" s="2" t="s">
+        <v>1737</v>
+      </c>
+      <c r="C859" s="2" t="s">
+        <v>1774</v>
+      </c>
+      <c r="D859" s="2" t="s">
+        <v>1776</v>
+      </c>
+      <c r="E859" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F859" s="3" t="s">
+        <v>1777</v>
+      </c>
+      <c r="G859" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="860" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A860" s="2" t="s">
+        <v>1698</v>
+      </c>
+      <c r="B860" s="2" t="s">
+        <v>1738</v>
+      </c>
+      <c r="C860" s="2" t="s">
+        <v>1774</v>
+      </c>
+      <c r="D860" s="2" t="s">
+        <v>1775</v>
+      </c>
+      <c r="E860" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F860" s="3" t="s">
+        <v>1777</v>
+      </c>
+      <c r="G860" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="861" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A861" s="2" t="s">
+        <v>1699</v>
+      </c>
+      <c r="B861" s="2" t="s">
+        <v>1739</v>
+      </c>
+      <c r="C861" s="2" t="s">
+        <v>1774</v>
+      </c>
+      <c r="D861" s="2" t="s">
+        <v>1776</v>
+      </c>
+      <c r="E861" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F861" s="3" t="s">
+        <v>1777</v>
+      </c>
+      <c r="G861" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="862" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A862" s="2" t="s">
+        <v>1700</v>
+      </c>
+      <c r="B862" s="2" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C862" s="2" t="s">
+        <v>1774</v>
+      </c>
+      <c r="D862" s="2" t="s">
+        <v>1775</v>
+      </c>
+      <c r="E862" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F862" s="3" t="s">
+        <v>1777</v>
+      </c>
+      <c r="G862" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="863" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A863" s="2" t="s">
+        <v>1701</v>
+      </c>
+      <c r="B863" s="2" t="s">
+        <v>1741</v>
+      </c>
+      <c r="C863" s="2" t="s">
+        <v>1774</v>
+      </c>
+      <c r="D863" s="2" t="s">
+        <v>1776</v>
+      </c>
+      <c r="E863" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F863" s="3" t="s">
+        <v>1777</v>
+      </c>
+      <c r="G863" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="864" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A864" s="2" t="s">
+        <v>1702</v>
+      </c>
+      <c r="B864" s="2" t="s">
+        <v>1742</v>
+      </c>
+      <c r="C864" s="2" t="s">
+        <v>1774</v>
+      </c>
+      <c r="D864" s="2" t="s">
+        <v>1775</v>
+      </c>
+      <c r="E864" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F864" s="3" t="s">
+        <v>1777</v>
+      </c>
+      <c r="G864" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="865" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A865" s="2" t="s">
+        <v>1703</v>
+      </c>
+      <c r="B865" s="2" t="s">
+        <v>1743</v>
+      </c>
+      <c r="C865" s="2" t="s">
+        <v>1774</v>
+      </c>
+      <c r="D865" s="2" t="s">
+        <v>1776</v>
+      </c>
+      <c r="E865" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F865" s="3" t="s">
+        <v>1777</v>
+      </c>
+      <c r="G865" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="866" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A866" s="2" t="s">
+        <v>1704</v>
+      </c>
+      <c r="B866" s="2" t="s">
+        <v>1744</v>
+      </c>
+      <c r="C866" s="2" t="s">
+        <v>1774</v>
+      </c>
+      <c r="D866" s="2" t="s">
+        <v>1775</v>
+      </c>
+      <c r="E866" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F866" s="3" t="s">
+        <v>1777</v>
+      </c>
+      <c r="G866" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="867" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A867" s="2" t="s">
+        <v>1705</v>
+      </c>
+      <c r="B867" s="2" t="s">
+        <v>1745</v>
+      </c>
+      <c r="C867" s="2" t="s">
+        <v>1774</v>
+      </c>
+      <c r="D867" s="2" t="s">
+        <v>1776</v>
+      </c>
+      <c r="E867" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F867" s="3" t="s">
+        <v>1777</v>
+      </c>
+      <c r="G867" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="868" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A868" s="2" t="s">
+        <v>1706</v>
+      </c>
+      <c r="B868" s="2" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C868" s="2" t="s">
+        <v>1774</v>
+      </c>
+      <c r="D868" s="2" t="s">
+        <v>1775</v>
+      </c>
+      <c r="E868" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F868" s="3">
+        <v>7</v>
+      </c>
+      <c r="G868" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="869" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A869" s="2" t="s">
+        <v>1707</v>
+      </c>
+      <c r="B869" s="2" t="s">
+        <v>1747</v>
+      </c>
+      <c r="C869" s="2" t="s">
+        <v>1774</v>
+      </c>
+      <c r="D869" s="2" t="s">
+        <v>1776</v>
+      </c>
+      <c r="E869" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F869" s="3">
+        <v>7</v>
+      </c>
+      <c r="G869" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="870" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A870" s="2" t="s">
+        <v>1708</v>
+      </c>
+      <c r="B870" s="2" t="s">
+        <v>1748</v>
+      </c>
+      <c r="C870" s="2" t="s">
+        <v>1774</v>
+      </c>
+      <c r="D870" s="2" t="s">
+        <v>1775</v>
+      </c>
+      <c r="E870" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F870" s="3">
+        <v>7</v>
+      </c>
+      <c r="G870" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="871" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A871" s="2" t="s">
+        <v>1709</v>
+      </c>
+      <c r="B871" s="2" t="s">
+        <v>1749</v>
+      </c>
+      <c r="C871" s="2" t="s">
+        <v>1774</v>
+      </c>
+      <c r="D871" s="2" t="s">
+        <v>1776</v>
+      </c>
+      <c r="E871" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F871" s="3">
+        <v>7</v>
+      </c>
+      <c r="G871" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="872" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A872" s="2" t="s">
+        <v>1710</v>
+      </c>
+      <c r="B872" s="2" t="s">
+        <v>1750</v>
+      </c>
+      <c r="C872" s="2" t="s">
+        <v>1774</v>
+      </c>
+      <c r="D872" s="2" t="s">
+        <v>1775</v>
+      </c>
+      <c r="E872" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F872" s="3">
+        <v>7</v>
+      </c>
+      <c r="G872" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="873" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A873" s="2" t="s">
+        <v>1711</v>
+      </c>
+      <c r="B873" s="2" t="s">
+        <v>1751</v>
+      </c>
+      <c r="C873" s="2" t="s">
+        <v>1774</v>
+      </c>
+      <c r="D873" s="2" t="s">
+        <v>1776</v>
+      </c>
+      <c r="E873" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F873" s="3">
+        <v>7</v>
+      </c>
+      <c r="G873" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="874" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A874" s="2" t="s">
+        <v>1712</v>
+      </c>
+      <c r="B874" s="2" t="s">
+        <v>1752</v>
+      </c>
+      <c r="C874" s="2" t="s">
+        <v>1774</v>
+      </c>
+      <c r="D874" s="2" t="s">
+        <v>1775</v>
+      </c>
+      <c r="E874" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F874" s="3">
+        <v>7</v>
+      </c>
+      <c r="G874" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="875" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A875" s="2" t="s">
+        <v>1713</v>
+      </c>
+      <c r="B875" s="2" t="s">
+        <v>1753</v>
+      </c>
+      <c r="C875" s="2" t="s">
+        <v>1774</v>
+      </c>
+      <c r="D875" s="2" t="s">
+        <v>1776</v>
+      </c>
+      <c r="E875" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F875" s="3">
+        <v>7</v>
+      </c>
+      <c r="G875" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="876" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A876" s="2" t="s">
+        <v>1714</v>
+      </c>
+      <c r="B876" s="2" t="s">
+        <v>1754</v>
+      </c>
+      <c r="C876" s="2" t="s">
+        <v>1774</v>
+      </c>
+      <c r="D876" s="2" t="s">
+        <v>1775</v>
+      </c>
+      <c r="E876" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F876" s="3">
+        <v>7</v>
+      </c>
+      <c r="G876" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="877" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A877" s="2" t="s">
+        <v>1715</v>
+      </c>
+      <c r="B877" s="2" t="s">
+        <v>1755</v>
+      </c>
+      <c r="C877" s="2" t="s">
+        <v>1774</v>
+      </c>
+      <c r="D877" s="2" t="s">
+        <v>1776</v>
+      </c>
+      <c r="E877" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F877" s="3">
+        <v>7</v>
+      </c>
+      <c r="G877" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="878" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A878" s="2" t="s">
+        <v>1716</v>
+      </c>
+      <c r="B878" s="2" t="s">
+        <v>1756</v>
+      </c>
+      <c r="C878" s="2" t="s">
+        <v>1774</v>
+      </c>
+      <c r="D878" s="2" t="s">
+        <v>1775</v>
+      </c>
+      <c r="E878" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F878" s="3">
+        <v>7</v>
+      </c>
+      <c r="G878" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="879" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A879" s="2" t="s">
+        <v>1717</v>
+      </c>
+      <c r="B879" s="2" t="s">
+        <v>1757</v>
+      </c>
+      <c r="C879" s="2" t="s">
+        <v>1774</v>
+      </c>
+      <c r="D879" s="2" t="s">
+        <v>1776</v>
+      </c>
+      <c r="E879" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F879" s="3">
+        <v>7</v>
+      </c>
+      <c r="G879" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="880" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A880" s="2" t="s">
+        <v>1718</v>
+      </c>
+      <c r="B880" s="2" t="s">
+        <v>1758</v>
+      </c>
+      <c r="C880" s="2" t="s">
+        <v>1774</v>
+      </c>
+      <c r="D880" s="2" t="s">
+        <v>1775</v>
+      </c>
+      <c r="E880" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F880" s="3">
+        <v>7</v>
+      </c>
+      <c r="G880" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="881" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A881" s="2" t="s">
+        <v>1719</v>
+      </c>
+      <c r="B881" s="2" t="s">
+        <v>1759</v>
+      </c>
+      <c r="C881" s="2" t="s">
+        <v>1774</v>
+      </c>
+      <c r="D881" s="2" t="s">
+        <v>1776</v>
+      </c>
+      <c r="E881" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F881" s="3">
+        <v>7</v>
+      </c>
+      <c r="G881" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="882" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A882" s="2" t="s">
+        <v>1720</v>
+      </c>
+      <c r="B882" s="2" t="s">
+        <v>1760</v>
+      </c>
+      <c r="C882" s="2" t="s">
+        <v>1774</v>
+      </c>
+      <c r="D882" s="2" t="s">
+        <v>1775</v>
+      </c>
+      <c r="E882" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F882" s="3">
+        <v>7</v>
+      </c>
+      <c r="G882" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="883" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A883" s="2" t="s">
+        <v>1721</v>
+      </c>
+      <c r="B883" s="2" t="s">
+        <v>1761</v>
+      </c>
+      <c r="C883" s="2" t="s">
+        <v>1774</v>
+      </c>
+      <c r="D883" s="2" t="s">
+        <v>1776</v>
+      </c>
+      <c r="E883" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F883" s="3">
+        <v>7</v>
+      </c>
+      <c r="G883" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="884" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A884" s="2" t="s">
+        <v>1722</v>
+      </c>
+      <c r="B884" s="2" t="s">
+        <v>1762</v>
+      </c>
+      <c r="C884" s="2" t="s">
+        <v>1774</v>
+      </c>
+      <c r="D884" s="2" t="s">
+        <v>1775</v>
+      </c>
+      <c r="E884" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F884" s="3">
+        <v>8</v>
+      </c>
+      <c r="G884" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="885" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A885" s="2" t="s">
+        <v>1723</v>
+      </c>
+      <c r="B885" s="2" t="s">
+        <v>1763</v>
+      </c>
+      <c r="C885" s="2" t="s">
+        <v>1774</v>
+      </c>
+      <c r="D885" s="2" t="s">
+        <v>1776</v>
+      </c>
+      <c r="E885" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F885" s="3">
+        <v>8</v>
+      </c>
+      <c r="G885" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="886" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A886" s="2" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B886" s="2" t="s">
+        <v>1764</v>
+      </c>
+      <c r="C886" s="2" t="s">
+        <v>1774</v>
+      </c>
+      <c r="D886" s="2" t="s">
+        <v>1775</v>
+      </c>
+      <c r="E886" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F886" s="3">
+        <v>8</v>
+      </c>
+      <c r="G886" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="887" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A887" s="2" t="s">
+        <v>1725</v>
+      </c>
+      <c r="B887" s="2" t="s">
+        <v>1765</v>
+      </c>
+      <c r="C887" s="2" t="s">
+        <v>1774</v>
+      </c>
+      <c r="D887" s="2" t="s">
+        <v>1776</v>
+      </c>
+      <c r="E887" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F887" s="3">
+        <v>8</v>
+      </c>
+      <c r="G887" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="888" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A888" s="2" t="s">
+        <v>1726</v>
+      </c>
+      <c r="B888" s="2" t="s">
+        <v>1766</v>
+      </c>
+      <c r="C888" s="2" t="s">
+        <v>1774</v>
+      </c>
+      <c r="D888" s="2" t="s">
+        <v>1775</v>
+      </c>
+      <c r="E888" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F888" s="3">
+        <v>8</v>
+      </c>
+      <c r="G888" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="889" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A889" s="2" t="s">
+        <v>1727</v>
+      </c>
+      <c r="B889" s="2" t="s">
+        <v>1767</v>
+      </c>
+      <c r="C889" s="2" t="s">
+        <v>1774</v>
+      </c>
+      <c r="D889" s="2" t="s">
+        <v>1776</v>
+      </c>
+      <c r="E889" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F889" s="3">
+        <v>8</v>
+      </c>
+      <c r="G889" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="890" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A890" s="2" t="s">
+        <v>1728</v>
+      </c>
+      <c r="B890" s="2" t="s">
+        <v>1768</v>
+      </c>
+      <c r="C890" s="2" t="s">
+        <v>1774</v>
+      </c>
+      <c r="D890" s="2" t="s">
+        <v>1775</v>
+      </c>
+      <c r="E890" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F890" s="3">
+        <v>8</v>
+      </c>
+      <c r="G890" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="891" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A891" s="2" t="s">
+        <v>1729</v>
+      </c>
+      <c r="B891" s="2" t="s">
+        <v>1769</v>
+      </c>
+      <c r="C891" s="2" t="s">
+        <v>1774</v>
+      </c>
+      <c r="D891" s="2" t="s">
+        <v>1776</v>
+      </c>
+      <c r="E891" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F891" s="3">
+        <v>8</v>
+      </c>
+      <c r="G891" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="892" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A892" s="2" t="s">
+        <v>1730</v>
+      </c>
+      <c r="B892" s="2" t="s">
+        <v>1770</v>
+      </c>
+      <c r="C892" s="2" t="s">
+        <v>1774</v>
+      </c>
+      <c r="D892" s="2" t="s">
+        <v>1775</v>
+      </c>
+      <c r="E892" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F892" s="3">
+        <v>8</v>
+      </c>
+      <c r="G892" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="893" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A893" s="2" t="s">
+        <v>1731</v>
+      </c>
+      <c r="B893" s="2" t="s">
+        <v>1771</v>
+      </c>
+      <c r="C893" s="2" t="s">
+        <v>1774</v>
+      </c>
+      <c r="D893" s="2" t="s">
+        <v>1776</v>
+      </c>
+      <c r="E893" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F893" s="3">
+        <v>8</v>
+      </c>
+      <c r="G893" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="894" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A894" s="2" t="s">
+        <v>1732</v>
+      </c>
+      <c r="B894" s="2" t="s">
+        <v>1772</v>
+      </c>
+      <c r="C894" s="2" t="s">
+        <v>1774</v>
+      </c>
+      <c r="D894" s="2" t="s">
+        <v>1775</v>
+      </c>
+      <c r="E894" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F894" s="3">
+        <v>8</v>
+      </c>
+      <c r="G894" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="895" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A895" s="2" t="s">
+        <v>1733</v>
+      </c>
+      <c r="B895" s="2" t="s">
+        <v>1773</v>
+      </c>
+      <c r="C895" s="2" t="s">
+        <v>1774</v>
+      </c>
+      <c r="D895" s="2" t="s">
+        <v>1776</v>
+      </c>
+      <c r="E895" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F895" s="3">
+        <v>8</v>
+      </c>
+      <c r="G895" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G855"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
